--- a/nodes_source_analyses/transport/transport_truck_using_lng_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_lng_mix.converter.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robterwel/Projects/etdataset/nodes_source_analyses/transport/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +31,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -832,7 +827,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="246">
+  <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1014,6 +1009,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1293,7 +1289,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="246">
+  <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1450,6 +1446,7 @@
     <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1583,7 +1580,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1591,12 +1588,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -1841,7 +1832,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2284,32 +2275,32 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="27" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="19" customWidth="1"/>
     <col min="3" max="3" width="38.5" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="19"/>
+    <col min="4" max="16384" width="10.625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="25" customFormat="1">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20">
       <c r="A2" s="1"/>
       <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -2318,7 +2309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>25</v>
@@ -2327,7 +2318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -2336,29 +2327,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="77" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="78"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="79" t="s">
         <v>27</v>
@@ -2367,33 +2358,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="79"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="79"/>
       <c r="C13" s="82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="79"/>
       <c r="C14" s="80" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="79"/>
       <c r="C15" s="80"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="79" t="s">
         <v>32</v>
@@ -2402,49 +2393,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="79"/>
       <c r="C17" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="79"/>
       <c r="C18" s="85" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="79"/>
       <c r="C19" s="86" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="87"/>
       <c r="C20" s="88" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="87"/>
       <c r="C21" s="89" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="87"/>
       <c r="C22" s="90" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="87"/>
       <c r="C23" s="91" t="s">
         <v>40</v>
@@ -2456,6 +2447,11 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2466,32 +2462,30 @@
   </sheetPr>
   <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="43.1640625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="46.875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="43.125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="33" customWidth="1"/>
     <col min="9" max="9" width="42.5" style="33" customWidth="1"/>
     <col min="10" max="10" width="5" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="33"/>
+    <col min="11" max="16384" width="10.625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="125" t="s">
         <v>46</v>
       </c>
@@ -2501,7 +2495,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="128"/>
       <c r="C3" s="129"/>
       <c r="D3" s="129"/>
@@ -2509,7 +2503,7 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="128"/>
       <c r="C4" s="129"/>
       <c r="D4" s="129"/>
@@ -2517,7 +2511,7 @@
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="131"/>
       <c r="C5" s="132"/>
       <c r="D5" s="132"/>
@@ -2525,10 +2519,10 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="16" thickBot="1">
       <c r="D6" s="34"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="35"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2539,7 +2533,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="36"/>
     </row>
-    <row r="8" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" s="22" customFormat="1">
       <c r="B8" s="98"/>
       <c r="C8" s="15" t="s">
         <v>18</v>
@@ -2560,7 +2554,7 @@
       </c>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" s="22" customFormat="1">
       <c r="B9" s="21"/>
       <c r="C9" s="13"/>
       <c r="D9" s="30"/>
@@ -2571,7 +2565,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
         <v>45</v>
@@ -2584,7 +2578,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
       <c r="B11" s="21"/>
       <c r="C11" s="124" t="s">
         <v>81</v>
@@ -2604,72 +2598,72 @@
       <c r="I11" s="32"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="38"/>
-      <c r="C12" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="39">
-        <v>0</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="63"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="97"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="16" thickBot="1">
       <c r="B13" s="38"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="97"/>
-      <c r="K13" s="34"/>
-    </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:11" ht="16" thickBot="1">
       <c r="B14" s="38"/>
-      <c r="C14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="97"/>
-    </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="37" t="s">
+      <c r="C14" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="114">
+      <c r="E14" s="114">
         <f>'Research data'!H8</f>
         <v>12</v>
       </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="97"/>
+    </row>
+    <row r="15" spans="2:11" ht="16" thickBot="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="39">
+        <v>0</v>
+      </c>
       <c r="F15" s="37"/>
-      <c r="G15" s="76" t="s">
-        <v>24</v>
+      <c r="G15" s="110" t="s">
+        <v>53</v>
       </c>
       <c r="H15" s="37"/>
-      <c r="I15" s="104"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="97"/>
-    </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="2:11" ht="16" thickBot="1">
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -2680,7 +2674,7 @@
       <c r="I16" s="42"/>
       <c r="J16" s="43"/>
     </row>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E5"/>
@@ -2719,6 +2713,11 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2733,22 +2732,22 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="44" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="44" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="44" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="44"/>
+    <col min="1" max="1" width="3.375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="35.875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="44" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="44" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="3.125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="44" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="44" customWidth="1"/>
+    <col min="10" max="16384" width="10.625" style="44"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="16" thickBot="1"/>
+    <row r="3" spans="2:12">
       <c r="B3" s="45"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
@@ -2758,7 +2757,7 @@
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
     </row>
-    <row r="4" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" s="22" customFormat="1">
       <c r="B4" s="21"/>
       <c r="C4" s="92" t="s">
         <v>41</v>
@@ -2781,7 +2780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" ht="18" customHeight="1">
       <c r="B5" s="47"/>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
@@ -2792,7 +2791,7 @@
       <c r="I5" s="52"/>
       <c r="L5" s="60"/>
     </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="47"/>
       <c r="C6" s="12" t="s">
         <v>45</v>
@@ -2806,7 +2805,7 @@
       <c r="J6" s="48"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="16" thickBot="1">
       <c r="B7" s="47"/>
       <c r="C7" s="111" t="s">
         <v>50</v>
@@ -2828,7 +2827,7 @@
       </c>
       <c r="L7" s="62"/>
     </row>
-    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="16" thickBot="1">
       <c r="B8" s="47"/>
       <c r="C8" s="55" t="s">
         <v>3</v>
@@ -2850,7 +2849,7 @@
       </c>
       <c r="L8" s="62"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12">
       <c r="B9" s="47"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -2862,7 +2861,7 @@
       <c r="J9" s="48"/>
       <c r="L9" s="51"/>
     </row>
-    <row r="10" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="16" thickBot="1">
       <c r="B10" s="47"/>
       <c r="C10" s="12" t="s">
         <v>42</v>
@@ -2876,7 +2875,7 @@
       <c r="J10" s="48"/>
       <c r="L10" s="60"/>
     </row>
-    <row r="11" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="16" thickBot="1">
       <c r="B11" s="47"/>
       <c r="C11" s="96" t="s">
         <v>44</v>
@@ -2900,7 +2899,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="16" thickBot="1">
       <c r="B12" s="47"/>
       <c r="C12" s="96" t="s">
         <v>43</v>
@@ -2918,12 +2917,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12">
       <c r="L13" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2938,22 +2942,22 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="65" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="65" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="65" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="71" customWidth="1"/>
-    <col min="9" max="9" width="31.83203125" style="71" customWidth="1"/>
-    <col min="10" max="10" width="98.33203125" style="65" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="65"/>
+    <col min="1" max="1" width="3.625" style="65" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="38.625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="65" customWidth="1"/>
+    <col min="6" max="7" width="13.125" style="65" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="71" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="71" customWidth="1"/>
+    <col min="10" max="10" width="98.375" style="65" customWidth="1"/>
+    <col min="11" max="16384" width="33.125" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="16" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="66"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -2964,7 +2968,7 @@
       <c r="I2" s="72"/>
       <c r="J2" s="67"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="69"/>
       <c r="C3" s="13" t="s">
         <v>36</v>
@@ -2977,7 +2981,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="69"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -2988,7 +2992,7 @@
       <c r="I4" s="73"/>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="74"/>
       <c r="C5" s="15" t="s">
         <v>15</v>
@@ -3015,7 +3019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="69"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3026,10 +3030,10 @@
       <c r="I6" s="16"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="69"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="69"/>
       <c r="C8" s="113" t="s">
         <v>50</v>
@@ -3056,7 +3060,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="69"/>
       <c r="C9" s="113" t="s">
         <v>3</v>
@@ -3069,7 +3073,7 @@
       <c r="I9" s="64"/>
       <c r="J9" s="64"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="69"/>
       <c r="C10" s="75" t="s">
         <v>6</v>
@@ -3082,7 +3086,7 @@
       <c r="I10" s="64"/>
       <c r="J10" s="64"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="69"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -3091,7 +3095,7 @@
       <c r="H11" s="107"/>
       <c r="I11" s="64"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="69"/>
       <c r="C12" s="75"/>
       <c r="D12" s="64"/>
@@ -3101,7 +3105,7 @@
       <c r="H12" s="70"/>
       <c r="I12" s="64"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="69"/>
       <c r="C13" s="113" t="s">
         <v>52</v>
@@ -3113,7 +3117,7 @@
       <c r="H13" s="70"/>
       <c r="I13" s="64"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="69"/>
       <c r="C14" s="75"/>
       <c r="D14" s="64"/>
@@ -3124,7 +3128,7 @@
       <c r="I14" s="64"/>
       <c r="J14" s="64"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="69"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
@@ -3134,7 +3138,7 @@
       <c r="I15" s="64"/>
       <c r="J15" s="64"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="69"/>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
@@ -3144,7 +3148,7 @@
       <c r="I16" s="64"/>
       <c r="J16" s="64"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="69"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
@@ -3154,7 +3158,7 @@
       <c r="I17" s="64"/>
       <c r="J17" s="64"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="69"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
@@ -3164,7 +3168,7 @@
       <c r="I18" s="64"/>
       <c r="J18" s="64"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="69"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -3174,7 +3178,7 @@
       <c r="I19" s="106"/>
       <c r="J19" s="105"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="D20" s="108"/>
       <c r="E20" s="108"/>
       <c r="H20" s="109"/>
@@ -3182,6 +3186,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3196,19 +3205,19 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="65" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="65" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="65" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="65" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="65"/>
+    <col min="3" max="3" width="16.625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="4.375" style="65" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="65" customWidth="1"/>
+    <col min="7" max="16384" width="10.625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="16" thickBot="1"/>
+    <row r="2" spans="1:13">
       <c r="B2" s="66"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -3222,7 +3231,7 @@
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="22"/>
       <c r="B3" s="98"/>
       <c r="C3" s="15" t="s">
@@ -3241,7 +3250,7 @@
       <c r="L3" s="68"/>
       <c r="M3" s="68"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="B4" s="69"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -3255,7 +3264,7 @@
       <c r="L4" s="64"/>
       <c r="M4" s="64"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="B5" s="69"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
@@ -3268,7 +3277,7 @@
       <c r="L5" s="64"/>
       <c r="M5" s="64"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="B6" s="69"/>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
@@ -3282,7 +3291,7 @@
       <c r="L6" s="64"/>
       <c r="M6" s="64"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="B7" s="69"/>
       <c r="D7" s="64"/>
       <c r="G7" s="64"/>
@@ -3293,7 +3302,7 @@
       <c r="L7" s="64"/>
       <c r="M7" s="64"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="B8" s="69"/>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
@@ -3307,7 +3316,7 @@
       <c r="L8" s="64"/>
       <c r="M8" s="64"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="B9" s="69"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
@@ -3321,7 +3330,7 @@
       <c r="L9" s="64"/>
       <c r="M9" s="64"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="B10" s="69"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -3335,7 +3344,7 @@
       <c r="L10" s="64"/>
       <c r="M10" s="64"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="B11" s="69"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
@@ -3349,7 +3358,7 @@
       <c r="L11" s="64"/>
       <c r="M11" s="64"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="B12" s="69"/>
       <c r="C12" s="115" t="s">
         <v>50</v>
@@ -3371,7 +3380,7 @@
       <c r="L12" s="64"/>
       <c r="M12" s="64"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="B13" s="69"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
@@ -3390,7 +3399,7 @@
       <c r="L13" s="64"/>
       <c r="M13" s="64"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="B14" s="69"/>
       <c r="C14" s="115" t="s">
         <v>55</v>
@@ -3406,7 +3415,7 @@
       <c r="L14" s="64"/>
       <c r="M14" s="64"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="B15" s="69"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
@@ -3420,7 +3429,7 @@
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="B16" s="69"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
@@ -3434,7 +3443,7 @@
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13">
       <c r="B17" s="69"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
@@ -3448,7 +3457,7 @@
       <c r="L17" s="64"/>
       <c r="M17" s="64"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13">
       <c r="B18" s="69"/>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
@@ -3462,7 +3471,7 @@
       <c r="L18" s="64"/>
       <c r="M18" s="64"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13">
       <c r="B19" s="69"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
@@ -3476,7 +3485,7 @@
       <c r="L19" s="64"/>
       <c r="M19" s="64"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13">
       <c r="B20" s="69"/>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
@@ -3490,7 +3499,7 @@
       <c r="L20" s="64"/>
       <c r="M20" s="64"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13">
       <c r="B21" s="69"/>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
@@ -3504,7 +3513,7 @@
       <c r="L21" s="64"/>
       <c r="M21" s="64"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13">
       <c r="B22" s="69"/>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
@@ -3518,7 +3527,7 @@
       <c r="L22" s="64"/>
       <c r="M22" s="64"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13">
       <c r="B23" s="69"/>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
@@ -3532,7 +3541,7 @@
       <c r="L23" s="64"/>
       <c r="M23" s="64"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13">
       <c r="B24" s="69"/>
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
@@ -3546,7 +3555,7 @@
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13">
       <c r="B25" s="69"/>
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
@@ -3560,7 +3569,7 @@
       <c r="L25" s="64"/>
       <c r="M25" s="64"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13">
       <c r="B26" s="69"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
@@ -3574,7 +3583,7 @@
       <c r="L26" s="64"/>
       <c r="M26" s="64"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13">
       <c r="B27" s="69"/>
       <c r="D27" s="64"/>
       <c r="G27" s="64"/>
@@ -3585,7 +3594,7 @@
       <c r="L27" s="64"/>
       <c r="M27" s="64"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13">
       <c r="B28" s="69"/>
       <c r="C28" s="115" t="s">
         <v>57</v>
@@ -3605,7 +3614,7 @@
       <c r="L28" s="64"/>
       <c r="M28" s="64"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13">
       <c r="B29" s="69"/>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
@@ -3619,7 +3628,7 @@
       <c r="L29" s="64"/>
       <c r="M29" s="64"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13">
       <c r="B30" s="69"/>
       <c r="C30" s="115" t="s">
         <v>55</v>
@@ -3635,7 +3644,7 @@
       <c r="L30" s="64"/>
       <c r="M30" s="64"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13">
       <c r="B31" s="69"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
@@ -3649,7 +3658,7 @@
       <c r="L31" s="64"/>
       <c r="M31" s="64"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13">
       <c r="B32" s="69"/>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
@@ -3663,7 +3672,7 @@
       <c r="L32" s="64"/>
       <c r="M32" s="64"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13">
       <c r="B33" s="69"/>
       <c r="C33" s="64"/>
       <c r="D33" s="64"/>
@@ -3677,7 +3686,7 @@
       <c r="L33" s="64"/>
       <c r="M33" s="64"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13">
       <c r="B34" s="69"/>
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
@@ -3691,7 +3700,7 @@
       <c r="L34" s="64"/>
       <c r="M34" s="64"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13">
       <c r="B35" s="69"/>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -3705,7 +3714,7 @@
       <c r="L35" s="64"/>
       <c r="M35" s="64"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13">
       <c r="B36" s="69"/>
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>
@@ -3719,7 +3728,7 @@
       <c r="L36" s="64"/>
       <c r="M36" s="64"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13">
       <c r="B37" s="69"/>
       <c r="C37" s="64"/>
       <c r="D37" s="64"/>
@@ -3733,7 +3742,7 @@
       <c r="L37" s="64"/>
       <c r="M37" s="64"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13">
       <c r="B38" s="69"/>
       <c r="D38" s="64"/>
       <c r="E38" s="64"/>
@@ -3746,7 +3755,7 @@
       <c r="L38" s="64"/>
       <c r="M38" s="64"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13">
       <c r="B39" s="69"/>
       <c r="C39" s="64"/>
       <c r="D39" s="64"/>
@@ -3760,7 +3769,7 @@
       <c r="L39" s="64"/>
       <c r="M39" s="64"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13">
       <c r="B40" s="69"/>
       <c r="C40" s="64"/>
       <c r="D40" s="64"/>
@@ -3774,7 +3783,7 @@
       <c r="L40" s="64"/>
       <c r="M40" s="64"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13">
       <c r="B41" s="69"/>
       <c r="C41" s="64"/>
       <c r="D41" s="64"/>
@@ -3788,7 +3797,7 @@
       <c r="L41" s="64"/>
       <c r="M41" s="64"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13">
       <c r="B42" s="69"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -3802,7 +3811,7 @@
       <c r="L42" s="64"/>
       <c r="M42" s="64"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13">
       <c r="B43" s="69"/>
       <c r="C43" s="64"/>
       <c r="D43" s="64"/>
@@ -3816,7 +3825,7 @@
       <c r="L43" s="64"/>
       <c r="M43" s="64"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13">
       <c r="B44" s="69"/>
       <c r="C44" s="64"/>
       <c r="D44" s="64"/>
@@ -3830,7 +3839,7 @@
       <c r="L44" s="64"/>
       <c r="M44" s="64"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13">
       <c r="B45" s="69"/>
       <c r="C45" s="64"/>
       <c r="D45" s="64"/>
@@ -3844,7 +3853,7 @@
       <c r="L45" s="64"/>
       <c r="M45" s="64"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13">
       <c r="B46" s="69"/>
       <c r="C46" s="115" t="s">
         <v>3</v>
@@ -3864,7 +3873,7 @@
       <c r="L46" s="64"/>
       <c r="M46" s="64"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13">
       <c r="B47" s="69"/>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
@@ -3878,7 +3887,7 @@
       <c r="L47" s="64"/>
       <c r="M47" s="64"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13">
       <c r="B48" s="69"/>
       <c r="C48" s="115" t="s">
         <v>55</v>
@@ -3894,7 +3903,7 @@
       <c r="L48" s="64"/>
       <c r="M48" s="64"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13">
       <c r="B49" s="69"/>
       <c r="C49" s="64"/>
       <c r="D49" s="64"/>
@@ -3908,7 +3917,7 @@
       <c r="L49" s="64"/>
       <c r="M49" s="64"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13">
       <c r="B50" s="69"/>
       <c r="C50" s="64"/>
       <c r="D50" s="64"/>
@@ -3922,7 +3931,7 @@
       <c r="L50" s="64"/>
       <c r="M50" s="64"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13">
       <c r="B51" s="69"/>
       <c r="C51" s="64"/>
       <c r="D51" s="64"/>
@@ -3936,7 +3945,7 @@
       <c r="L51" s="64"/>
       <c r="M51" s="64"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13">
       <c r="B52" s="69"/>
       <c r="C52" s="64"/>
       <c r="D52" s="64"/>
@@ -3950,7 +3959,7 @@
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13">
       <c r="B53" s="69"/>
       <c r="C53" s="64"/>
       <c r="D53" s="64"/>
@@ -3964,7 +3973,7 @@
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13">
       <c r="B54" s="69"/>
       <c r="C54" s="64"/>
       <c r="D54" s="64"/>
@@ -3978,7 +3987,7 @@
       <c r="L54" s="64"/>
       <c r="M54" s="64"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13">
       <c r="B55" s="69"/>
       <c r="C55" s="64"/>
       <c r="D55" s="64"/>
@@ -3992,7 +4001,7 @@
       <c r="L55" s="64"/>
       <c r="M55" s="64"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13">
       <c r="B56" s="69"/>
       <c r="C56" s="64"/>
       <c r="D56" s="64"/>
@@ -4006,7 +4015,7 @@
       <c r="L56" s="64"/>
       <c r="M56" s="64"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13">
       <c r="B57" s="69"/>
       <c r="C57" s="64"/>
       <c r="D57" s="64"/>
@@ -4020,7 +4029,7 @@
       <c r="L57" s="64"/>
       <c r="M57" s="64"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13">
       <c r="B58" s="69"/>
       <c r="C58" s="64"/>
       <c r="D58" s="64"/>
@@ -4034,7 +4043,7 @@
       <c r="L58" s="64"/>
       <c r="M58" s="64"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13">
       <c r="B59" s="69"/>
       <c r="C59" s="64"/>
       <c r="D59" s="64"/>
@@ -4048,7 +4057,7 @@
       <c r="L59" s="64"/>
       <c r="M59" s="64"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13">
       <c r="B60" s="69"/>
       <c r="C60" s="64"/>
       <c r="D60" s="64"/>
@@ -4066,7 +4075,7 @@
       </c>
       <c r="M60" s="64"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13">
       <c r="B61" s="69"/>
       <c r="C61" s="64"/>
       <c r="D61" s="64"/>
@@ -4084,7 +4093,7 @@
       <c r="L61" s="64"/>
       <c r="M61" s="64"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13">
       <c r="B62" s="69"/>
       <c r="C62" s="64"/>
       <c r="D62" s="64"/>
@@ -4103,7 +4112,7 @@
       <c r="L62" s="64"/>
       <c r="M62" s="64"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13">
       <c r="B63" s="69"/>
       <c r="C63" s="64"/>
       <c r="D63" s="64"/>
@@ -4121,7 +4130,7 @@
       <c r="L63" s="64"/>
       <c r="M63" s="64"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13">
       <c r="B64" s="69"/>
       <c r="C64" s="64"/>
       <c r="D64" s="64"/>
@@ -4135,7 +4144,7 @@
       <c r="L64" s="64"/>
       <c r="M64" s="64"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13">
       <c r="B65" s="69"/>
       <c r="C65" s="64"/>
       <c r="D65" s="64"/>
@@ -4161,7 +4170,7 @@
       <c r="L65" s="64"/>
       <c r="M65" s="64"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13">
       <c r="B66" s="69"/>
       <c r="C66" s="64"/>
       <c r="D66" s="64"/>
@@ -4181,7 +4190,7 @@
       <c r="L66" s="64"/>
       <c r="M66" s="64"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13">
       <c r="B67" s="69"/>
       <c r="C67" s="64"/>
       <c r="D67" s="64"/>
@@ -4200,7 +4209,7 @@
       <c r="L67" s="64"/>
       <c r="M67" s="64"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13">
       <c r="B68" s="69"/>
       <c r="C68" s="64"/>
       <c r="D68" s="64"/>
@@ -4219,7 +4228,7 @@
       <c r="L68" s="64"/>
       <c r="M68" s="64"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13">
       <c r="B69" s="69"/>
       <c r="C69" s="64"/>
       <c r="D69" s="64"/>
@@ -4238,7 +4247,7 @@
       <c r="L69" s="64"/>
       <c r="M69" s="64"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13">
       <c r="B70" s="69"/>
       <c r="C70" s="64"/>
       <c r="D70" s="64"/>
@@ -4257,7 +4266,7 @@
       <c r="L70" s="64"/>
       <c r="M70" s="64"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13">
       <c r="B71" s="69"/>
       <c r="C71" s="64"/>
       <c r="D71" s="64"/>
@@ -4276,7 +4285,7 @@
       <c r="L71" s="64"/>
       <c r="M71" s="64"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13">
       <c r="B72" s="69"/>
       <c r="C72" s="64"/>
       <c r="D72" s="64"/>
@@ -4296,7 +4305,7 @@
       <c r="L72" s="64"/>
       <c r="M72" s="64"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13">
       <c r="B73" s="69"/>
       <c r="C73" s="64"/>
       <c r="D73" s="64"/>
@@ -4315,7 +4324,7 @@
       <c r="L73" s="64"/>
       <c r="M73" s="64"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13">
       <c r="B74" s="69"/>
       <c r="C74" s="64"/>
       <c r="D74" s="64"/>
@@ -4329,7 +4338,7 @@
       <c r="L74" s="64"/>
       <c r="M74" s="64"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13">
       <c r="B75" s="69"/>
       <c r="C75" s="103"/>
       <c r="D75" s="64"/>
@@ -4343,7 +4352,7 @@
       <c r="L75" s="64"/>
       <c r="M75" s="64"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13">
       <c r="B76" s="69"/>
       <c r="C76" s="103"/>
       <c r="D76" s="64"/>
@@ -4357,7 +4366,7 @@
       <c r="L76" s="64"/>
       <c r="M76" s="64"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13">
       <c r="B77" s="69"/>
       <c r="C77" s="64"/>
       <c r="D77" s="64"/>
@@ -4371,7 +4380,7 @@
       <c r="L77" s="64"/>
       <c r="M77" s="64"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13">
       <c r="B78" s="69"/>
       <c r="C78" s="64"/>
       <c r="D78" s="64"/>
@@ -4385,7 +4394,7 @@
       <c r="L78" s="64"/>
       <c r="M78" s="64"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13">
       <c r="B79" s="69"/>
       <c r="C79" s="64"/>
       <c r="D79" s="64"/>
@@ -4399,7 +4408,7 @@
       <c r="L79" s="64"/>
       <c r="M79" s="64"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13">
       <c r="B80" s="69"/>
       <c r="C80" s="64"/>
       <c r="D80" s="64"/>
@@ -4413,7 +4422,7 @@
       <c r="L80" s="64"/>
       <c r="M80" s="64"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13">
       <c r="B81" s="69"/>
       <c r="C81" s="64"/>
       <c r="D81" s="64"/>
@@ -4427,7 +4436,7 @@
       <c r="L81" s="64"/>
       <c r="M81" s="64"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13">
       <c r="B82" s="69"/>
       <c r="C82" s="64"/>
       <c r="D82" s="64"/>
@@ -4441,7 +4450,7 @@
       <c r="L82" s="64"/>
       <c r="M82" s="64"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13">
       <c r="B83" s="69"/>
       <c r="C83" s="64"/>
       <c r="D83" s="64"/>
@@ -4455,7 +4464,7 @@
       <c r="L83" s="64"/>
       <c r="M83" s="64"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13">
       <c r="B84" s="69"/>
       <c r="C84" s="64"/>
       <c r="D84" s="64"/>
@@ -4469,7 +4478,7 @@
       <c r="L84" s="64"/>
       <c r="M84" s="64"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13">
       <c r="B85" s="69"/>
       <c r="C85" s="64"/>
       <c r="D85" s="64"/>
@@ -4483,7 +4492,7 @@
       <c r="L85" s="64"/>
       <c r="M85" s="64"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13">
       <c r="B86" s="69"/>
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
@@ -4497,7 +4506,7 @@
       <c r="L86" s="64"/>
       <c r="M86" s="64"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13">
       <c r="B87" s="69"/>
       <c r="C87" s="64"/>
       <c r="D87" s="64"/>
@@ -4511,7 +4520,7 @@
       <c r="L87" s="64"/>
       <c r="M87" s="64"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13">
       <c r="B88" s="69"/>
       <c r="C88" s="103"/>
       <c r="D88" s="64"/>
@@ -4525,7 +4534,7 @@
       <c r="L88" s="64"/>
       <c r="M88" s="64"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13">
       <c r="B89" s="69"/>
       <c r="C89" s="103"/>
       <c r="D89" s="64"/>
@@ -4539,7 +4548,7 @@
       <c r="L89" s="64"/>
       <c r="M89" s="64"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13">
       <c r="B90" s="69"/>
       <c r="C90" s="64"/>
       <c r="D90" s="64"/>
@@ -4553,7 +4562,7 @@
       <c r="L90" s="64"/>
       <c r="M90" s="64"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13">
       <c r="B91" s="69"/>
       <c r="C91" s="64"/>
       <c r="D91" s="64"/>
@@ -4567,7 +4576,7 @@
       <c r="L91" s="64"/>
       <c r="M91" s="64"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13">
       <c r="B92" s="69"/>
       <c r="C92" s="64"/>
       <c r="D92" s="64"/>
@@ -4581,7 +4590,7 @@
       <c r="L92" s="64"/>
       <c r="M92" s="64"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13">
       <c r="B93" s="69"/>
       <c r="C93" s="64"/>
       <c r="D93" s="64"/>
@@ -4595,7 +4604,7 @@
       <c r="L93" s="64"/>
       <c r="M93" s="64"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13">
       <c r="B94" s="69"/>
       <c r="C94" s="64"/>
       <c r="D94" s="64"/>
@@ -4611,7 +4620,7 @@
       <c r="L94" s="64"/>
       <c r="M94" s="64"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13">
       <c r="B95" s="69"/>
       <c r="C95" s="64"/>
       <c r="D95" s="64"/>
@@ -4625,7 +4634,7 @@
       <c r="L95" s="64"/>
       <c r="M95" s="64"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13">
       <c r="B96" s="69"/>
       <c r="C96" s="64"/>
       <c r="D96" s="64"/>
@@ -4639,14 +4648,19 @@
       <c r="L96" s="64"/>
       <c r="M96" s="64"/>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:6">
       <c r="C98" s="108"/>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:6">
       <c r="F101" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_truck_using_lng_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_lng_mix.converter.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="762" activeTab="1"/>
   </bookViews>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -179,9 +187,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -310,6 +315,10 @@
       <t>_kms</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +329,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,11 +531,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1145,7 +1149,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1195,7 +1199,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1226,7 +1230,7 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1246,7 +1250,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1258,34 +1262,34 @@
     <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1548,77 +1552,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>431800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3759200</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1832,7 +1766,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2275,50 +2209,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="19"/>
+    <col min="1" max="1" width="3.42578125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -2327,29 +2261,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="77" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="78"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="79" t="s">
         <v>27</v>
@@ -2358,33 +2292,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="79"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="79"/>
       <c r="C13" s="82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="79"/>
       <c r="C14" s="80" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="79"/>
       <c r="C15" s="80"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="79" t="s">
         <v>32</v>
@@ -2393,49 +2327,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="79"/>
       <c r="C17" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="79"/>
       <c r="C18" s="85" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="79"/>
       <c r="C19" s="86" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="87"/>
       <c r="C20" s="88" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="87"/>
       <c r="C21" s="89" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="87"/>
       <c r="C22" s="90" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="87"/>
       <c r="C23" s="91" t="s">
         <v>40</v>
@@ -2447,47 +2381,44 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="43.125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="33" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="33" customWidth="1"/>
     <col min="10" max="10" width="5" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="33"/>
+    <col min="11" max="16384" width="10.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="125" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -2495,7 +2426,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="128"/>
       <c r="C3" s="129"/>
       <c r="D3" s="129"/>
@@ -2503,7 +2434,7 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="128"/>
       <c r="C4" s="129"/>
       <c r="D4" s="129"/>
@@ -2511,7 +2442,7 @@
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="131"/>
       <c r="C5" s="132"/>
       <c r="D5" s="132"/>
@@ -2519,10 +2450,10 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="34"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="35"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2533,7 +2464,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="36"/>
     </row>
-    <row r="8" spans="2:11" s="22" customFormat="1">
+    <row r="8" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="98"/>
       <c r="C8" s="15" t="s">
         <v>18</v>
@@ -2554,7 +2485,7 @@
       </c>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="2:11" s="22" customFormat="1">
+    <row r="9" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="13"/>
       <c r="D9" s="30"/>
@@ -2565,7 +2496,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
         <v>45</v>
@@ -2578,13 +2509,13 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="124" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="40">
         <f>'Research data'!H7</f>
@@ -2592,13 +2523,13 @@
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="32"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="38"/>
       <c r="C12" s="34"/>
       <c r="D12" s="100"/>
@@ -2610,7 +2541,7 @@
       <c r="J12" s="97"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
       <c r="C13" s="13" t="s">
         <v>5</v>
@@ -2623,7 +2554,7 @@
       <c r="I13" s="64"/>
       <c r="J13" s="97"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="37" t="s">
         <v>21</v>
@@ -2643,7 +2574,7 @@
       <c r="I14" s="104"/>
       <c r="J14" s="97"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="110" t="s">
         <v>20</v>
@@ -2656,14 +2587,14 @@
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="63"/>
       <c r="J15" s="97"/>
       <c r="K15" s="34"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -2674,50 +2605,13 @@
       <c r="I16" s="42"/>
       <c r="J16" s="43"/>
     </row>
-    <row r="21" ht="15" customHeight="1"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>431800</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3759200</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2732,22 +2626,22 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="44" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="44" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="3.125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="44" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="44" customWidth="1"/>
-    <col min="10" max="16384" width="10.625" style="44"/>
+    <col min="1" max="1" width="3.42578125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="44" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="44" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="44" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="44" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="44"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="16" thickBot="1"/>
-    <row r="3" spans="2:12">
+    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="45"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
@@ -2757,7 +2651,7 @@
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
     </row>
-    <row r="4" spans="2:12" s="22" customFormat="1">
+    <row r="4" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="92" t="s">
         <v>41</v>
@@ -2773,14 +2667,14 @@
       </c>
       <c r="I4" s="92"/>
       <c r="J4" s="92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="92" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="47"/>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
@@ -2791,7 +2685,7 @@
       <c r="I5" s="52"/>
       <c r="L5" s="60"/>
     </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="47"/>
       <c r="C6" s="12" t="s">
         <v>45</v>
@@ -2805,15 +2699,15 @@
       <c r="J6" s="48"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="2:12" ht="16" thickBot="1">
+    <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="47"/>
       <c r="C7" s="111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
       <c r="F7" s="112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="117">
@@ -2827,7 +2721,7 @@
       </c>
       <c r="L7" s="62"/>
     </row>
-    <row r="8" spans="2:12" ht="16" thickBot="1">
+    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="47"/>
       <c r="C8" s="55" t="s">
         <v>3</v>
@@ -2849,7 +2743,7 @@
       </c>
       <c r="L8" s="62"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="47"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -2861,7 +2755,7 @@
       <c r="J9" s="48"/>
       <c r="L9" s="51"/>
     </row>
-    <row r="10" spans="2:12" ht="16" thickBot="1">
+    <row r="10" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="47"/>
       <c r="C10" s="12" t="s">
         <v>42</v>
@@ -2875,7 +2769,7 @@
       <c r="J10" s="48"/>
       <c r="L10" s="60"/>
     </row>
-    <row r="11" spans="2:12" ht="16" thickBot="1">
+    <row r="11" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="47"/>
       <c r="C11" s="96" t="s">
         <v>44</v>
@@ -2896,10 +2790,10 @@
         <v>128000</v>
       </c>
       <c r="L11" s="123" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="16" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="47"/>
       <c r="C12" s="96" t="s">
         <v>43</v>
@@ -2914,20 +2808,15 @@
       <c r="I12" s="58"/>
       <c r="J12" s="52"/>
       <c r="L12" s="123" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L13" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2942,22 +2831,22 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="38.625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="65" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="65" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="65" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="71" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="71" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="65" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="65"/>
+    <col min="1" max="1" width="3.5703125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="65" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="65" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="71" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="71" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="65" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="66"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -2968,7 +2857,7 @@
       <c r="I2" s="72"/>
       <c r="J2" s="67"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="69"/>
       <c r="C3" s="13" t="s">
         <v>36</v>
@@ -2981,7 +2870,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="69"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -2992,7 +2881,7 @@
       <c r="I4" s="73"/>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="74"/>
       <c r="C5" s="15" t="s">
         <v>15</v>
@@ -3007,19 +2896,19 @@
         <v>16</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="69"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3030,19 +2919,19 @@
       <c r="I6" s="16"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="69"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="69"/>
       <c r="C8" s="113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="120" t="s">
         <v>74</v>
-      </c>
-      <c r="E8" s="120" t="s">
-        <v>75</v>
       </c>
       <c r="F8" s="64">
         <v>2013</v>
@@ -3054,13 +2943,13 @@
         <v>42278</v>
       </c>
       <c r="I8" s="122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="69"/>
       <c r="C9" s="113" t="s">
         <v>3</v>
@@ -3073,7 +2962,7 @@
       <c r="I9" s="64"/>
       <c r="J9" s="64"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="69"/>
       <c r="C10" s="75" t="s">
         <v>6</v>
@@ -3086,7 +2975,7 @@
       <c r="I10" s="64"/>
       <c r="J10" s="64"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="69"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -3095,7 +2984,7 @@
       <c r="H11" s="107"/>
       <c r="I11" s="64"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="69"/>
       <c r="C12" s="75"/>
       <c r="D12" s="64"/>
@@ -3105,10 +2994,10 @@
       <c r="H12" s="70"/>
       <c r="I12" s="64"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="69"/>
       <c r="C13" s="113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
@@ -3117,7 +3006,7 @@
       <c r="H13" s="70"/>
       <c r="I13" s="64"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="69"/>
       <c r="C14" s="75"/>
       <c r="D14" s="64"/>
@@ -3128,7 +3017,7 @@
       <c r="I14" s="64"/>
       <c r="J14" s="64"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="69"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
@@ -3138,7 +3027,7 @@
       <c r="I15" s="64"/>
       <c r="J15" s="64"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="69"/>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
@@ -3148,7 +3037,7 @@
       <c r="I16" s="64"/>
       <c r="J16" s="64"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="69"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
@@ -3158,7 +3047,7 @@
       <c r="I17" s="64"/>
       <c r="J17" s="64"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="69"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
@@ -3168,7 +3057,7 @@
       <c r="I18" s="64"/>
       <c r="J18" s="64"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="69"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -3178,7 +3067,7 @@
       <c r="I19" s="106"/>
       <c r="J19" s="105"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D20" s="108"/>
       <c r="E20" s="108"/>
       <c r="H20" s="109"/>
@@ -3186,11 +3075,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3205,19 +3089,18 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="4.375" style="65" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="65" customWidth="1"/>
-    <col min="7" max="16384" width="10.625" style="65"/>
+    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="65" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1"/>
-    <row r="2" spans="1:13">
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="66"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -3231,7 +3114,7 @@
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="98"/>
       <c r="C3" s="15" t="s">
@@ -3250,7 +3133,7 @@
       <c r="L3" s="68"/>
       <c r="M3" s="68"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="69"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -3264,7 +3147,7 @@
       <c r="L4" s="64"/>
       <c r="M4" s="64"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="69"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
@@ -3277,7 +3160,7 @@
       <c r="L5" s="64"/>
       <c r="M5" s="64"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="69"/>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
@@ -3291,7 +3174,7 @@
       <c r="L6" s="64"/>
       <c r="M6" s="64"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="69"/>
       <c r="D7" s="64"/>
       <c r="G7" s="64"/>
@@ -3302,7 +3185,7 @@
       <c r="L7" s="64"/>
       <c r="M7" s="64"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="69"/>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
@@ -3316,7 +3199,7 @@
       <c r="L8" s="64"/>
       <c r="M8" s="64"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="69"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
@@ -3330,7 +3213,7 @@
       <c r="L9" s="64"/>
       <c r="M9" s="64"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="69"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -3344,7 +3227,7 @@
       <c r="L10" s="64"/>
       <c r="M10" s="64"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="69"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
@@ -3358,19 +3241,19 @@
       <c r="L11" s="64"/>
       <c r="M11" s="64"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="69"/>
       <c r="C12" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="64">
         <v>8.4600000000000009</v>
       </c>
       <c r="F12" s="115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="64"/>
       <c r="H12" s="64"/>
@@ -3380,7 +3263,7 @@
       <c r="L12" s="64"/>
       <c r="M12" s="64"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="69"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
@@ -3389,7 +3272,7 @@
         <v>0.11820330969267138</v>
       </c>
       <c r="F13" s="115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="64"/>
       <c r="H13" s="64"/>
@@ -3399,10 +3282,10 @@
       <c r="L13" s="64"/>
       <c r="M13" s="64"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="69"/>
       <c r="C14" s="115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
@@ -3415,7 +3298,7 @@
       <c r="L14" s="64"/>
       <c r="M14" s="64"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="69"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
@@ -3429,7 +3312,7 @@
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="69"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
@@ -3443,7 +3326,7 @@
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="69"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
@@ -3457,7 +3340,7 @@
       <c r="L17" s="64"/>
       <c r="M17" s="64"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="69"/>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
@@ -3471,7 +3354,7 @@
       <c r="L18" s="64"/>
       <c r="M18" s="64"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="69"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
@@ -3485,7 +3368,7 @@
       <c r="L19" s="64"/>
       <c r="M19" s="64"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="69"/>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
@@ -3499,7 +3382,7 @@
       <c r="L20" s="64"/>
       <c r="M20" s="64"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="69"/>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
@@ -3513,7 +3396,7 @@
       <c r="L21" s="64"/>
       <c r="M21" s="64"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="69"/>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
@@ -3527,7 +3410,7 @@
       <c r="L22" s="64"/>
       <c r="M22" s="64"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="69"/>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
@@ -3541,7 +3424,7 @@
       <c r="L23" s="64"/>
       <c r="M23" s="64"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="69"/>
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
@@ -3555,7 +3438,7 @@
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="69"/>
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
@@ -3569,7 +3452,7 @@
       <c r="L25" s="64"/>
       <c r="M25" s="64"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="69"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
@@ -3583,7 +3466,7 @@
       <c r="L26" s="64"/>
       <c r="M26" s="64"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="69"/>
       <c r="D27" s="64"/>
       <c r="G27" s="64"/>
@@ -3594,10 +3477,10 @@
       <c r="L27" s="64"/>
       <c r="M27" s="64"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="69"/>
       <c r="C28" s="115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="120"/>
       <c r="E28" s="64">
@@ -3614,7 +3497,7 @@
       <c r="L28" s="64"/>
       <c r="M28" s="64"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="69"/>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
@@ -3628,10 +3511,10 @@
       <c r="L29" s="64"/>
       <c r="M29" s="64"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="69"/>
       <c r="C30" s="115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="64"/>
       <c r="E30" s="64"/>
@@ -3644,7 +3527,7 @@
       <c r="L30" s="64"/>
       <c r="M30" s="64"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="69"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
@@ -3658,7 +3541,7 @@
       <c r="L31" s="64"/>
       <c r="M31" s="64"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="69"/>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
@@ -3672,7 +3555,7 @@
       <c r="L32" s="64"/>
       <c r="M32" s="64"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="69"/>
       <c r="C33" s="64"/>
       <c r="D33" s="64"/>
@@ -3686,7 +3569,7 @@
       <c r="L33" s="64"/>
       <c r="M33" s="64"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="69"/>
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
@@ -3700,7 +3583,7 @@
       <c r="L34" s="64"/>
       <c r="M34" s="64"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="69"/>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -3714,7 +3597,7 @@
       <c r="L35" s="64"/>
       <c r="M35" s="64"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="69"/>
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>
@@ -3728,7 +3611,7 @@
       <c r="L36" s="64"/>
       <c r="M36" s="64"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="69"/>
       <c r="C37" s="64"/>
       <c r="D37" s="64"/>
@@ -3742,7 +3625,7 @@
       <c r="L37" s="64"/>
       <c r="M37" s="64"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="69"/>
       <c r="D38" s="64"/>
       <c r="E38" s="64"/>
@@ -3755,7 +3638,7 @@
       <c r="L38" s="64"/>
       <c r="M38" s="64"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="69"/>
       <c r="C39" s="64"/>
       <c r="D39" s="64"/>
@@ -3769,7 +3652,7 @@
       <c r="L39" s="64"/>
       <c r="M39" s="64"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="69"/>
       <c r="C40" s="64"/>
       <c r="D40" s="64"/>
@@ -3783,7 +3666,7 @@
       <c r="L40" s="64"/>
       <c r="M40" s="64"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="69"/>
       <c r="C41" s="64"/>
       <c r="D41" s="64"/>
@@ -3797,7 +3680,7 @@
       <c r="L41" s="64"/>
       <c r="M41" s="64"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="69"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
@@ -3811,7 +3694,7 @@
       <c r="L42" s="64"/>
       <c r="M42" s="64"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="69"/>
       <c r="C43" s="64"/>
       <c r="D43" s="64"/>
@@ -3825,7 +3708,7 @@
       <c r="L43" s="64"/>
       <c r="M43" s="64"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="69"/>
       <c r="C44" s="64"/>
       <c r="D44" s="64"/>
@@ -3839,7 +3722,7 @@
       <c r="L44" s="64"/>
       <c r="M44" s="64"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="69"/>
       <c r="C45" s="64"/>
       <c r="D45" s="64"/>
@@ -3853,7 +3736,7 @@
       <c r="L45" s="64"/>
       <c r="M45" s="64"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="69"/>
       <c r="C46" s="115" t="s">
         <v>3</v>
@@ -3873,7 +3756,7 @@
       <c r="L46" s="64"/>
       <c r="M46" s="64"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="69"/>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
@@ -3887,10 +3770,10 @@
       <c r="L47" s="64"/>
       <c r="M47" s="64"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="69"/>
       <c r="C48" s="115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="64"/>
       <c r="E48" s="64"/>
@@ -3903,7 +3786,7 @@
       <c r="L48" s="64"/>
       <c r="M48" s="64"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="69"/>
       <c r="C49" s="64"/>
       <c r="D49" s="64"/>
@@ -3917,7 +3800,7 @@
       <c r="L49" s="64"/>
       <c r="M49" s="64"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="69"/>
       <c r="C50" s="64"/>
       <c r="D50" s="64"/>
@@ -3931,7 +3814,7 @@
       <c r="L50" s="64"/>
       <c r="M50" s="64"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="69"/>
       <c r="C51" s="64"/>
       <c r="D51" s="64"/>
@@ -3945,7 +3828,7 @@
       <c r="L51" s="64"/>
       <c r="M51" s="64"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="69"/>
       <c r="C52" s="64"/>
       <c r="D52" s="64"/>
@@ -3959,7 +3842,7 @@
       <c r="L52" s="64"/>
       <c r="M52" s="64"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="69"/>
       <c r="C53" s="64"/>
       <c r="D53" s="64"/>
@@ -3973,7 +3856,7 @@
       <c r="L53" s="64"/>
       <c r="M53" s="64"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="69"/>
       <c r="C54" s="64"/>
       <c r="D54" s="64"/>
@@ -3987,7 +3870,7 @@
       <c r="L54" s="64"/>
       <c r="M54" s="64"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="69"/>
       <c r="C55" s="64"/>
       <c r="D55" s="64"/>
@@ -4001,7 +3884,7 @@
       <c r="L55" s="64"/>
       <c r="M55" s="64"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="69"/>
       <c r="C56" s="64"/>
       <c r="D56" s="64"/>
@@ -4015,7 +3898,7 @@
       <c r="L56" s="64"/>
       <c r="M56" s="64"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="69"/>
       <c r="C57" s="64"/>
       <c r="D57" s="64"/>
@@ -4029,7 +3912,7 @@
       <c r="L57" s="64"/>
       <c r="M57" s="64"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="69"/>
       <c r="C58" s="64"/>
       <c r="D58" s="64"/>
@@ -4043,7 +3926,7 @@
       <c r="L58" s="64"/>
       <c r="M58" s="64"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="69"/>
       <c r="C59" s="64"/>
       <c r="D59" s="64"/>
@@ -4057,7 +3940,7 @@
       <c r="L59" s="64"/>
       <c r="M59" s="64"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="69"/>
       <c r="C60" s="64"/>
       <c r="D60" s="64"/>
@@ -4066,16 +3949,16 @@
       <c r="G60" s="64"/>
       <c r="H60" s="64"/>
       <c r="I60" s="118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J60" s="64"/>
       <c r="K60" s="64"/>
       <c r="L60" s="118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M60" s="64"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="69"/>
       <c r="C61" s="64"/>
       <c r="D61" s="64"/>
@@ -4087,13 +3970,13 @@
         <v>60000</v>
       </c>
       <c r="J61" s="118" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K61" s="64"/>
       <c r="L61" s="64"/>
       <c r="M61" s="64"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="69"/>
       <c r="C62" s="64"/>
       <c r="D62" s="64"/>
@@ -4106,13 +3989,13 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="J62" s="118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K62" s="64"/>
       <c r="L62" s="64"/>
       <c r="M62" s="64"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="69"/>
       <c r="C63" s="64"/>
       <c r="D63" s="64"/>
@@ -4124,13 +4007,13 @@
         <v>300</v>
       </c>
       <c r="J63" s="118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K63" s="64"/>
       <c r="L63" s="64"/>
       <c r="M63" s="64"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="69"/>
       <c r="C64" s="64"/>
       <c r="D64" s="64"/>
@@ -4144,24 +4027,24 @@
       <c r="L64" s="64"/>
       <c r="M64" s="64"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="69"/>
       <c r="C65" s="64"/>
       <c r="D65" s="64"/>
       <c r="E65" s="64"/>
       <c r="F65" s="64"/>
       <c r="G65" s="119" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H65" s="118" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I65" s="64">
         <f>I61*I62*I63/1000000</f>
         <v>152.28000000000003</v>
       </c>
       <c r="J65" s="118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K65" s="64">
         <f>I65/I73*100</f>
@@ -4170,7 +4053,7 @@
       <c r="L65" s="64"/>
       <c r="M65" s="64"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="69"/>
       <c r="C66" s="64"/>
       <c r="D66" s="64"/>
@@ -4178,114 +4061,114 @@
       <c r="F66" s="64"/>
       <c r="G66" s="119"/>
       <c r="H66" s="118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I66" s="64">
         <v>855.56</v>
       </c>
       <c r="J66" s="118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K66" s="64"/>
       <c r="L66" s="64"/>
       <c r="M66" s="64"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="69"/>
       <c r="C67" s="64"/>
       <c r="D67" s="64"/>
       <c r="E67" s="64"/>
       <c r="F67" s="64"/>
       <c r="H67" s="118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I67" s="64">
         <v>12236.01</v>
       </c>
       <c r="J67" s="118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K67" s="64"/>
       <c r="L67" s="64"/>
       <c r="M67" s="64"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="69"/>
       <c r="C68" s="64"/>
       <c r="D68" s="64"/>
       <c r="E68" s="64"/>
       <c r="F68" s="64"/>
       <c r="H68" s="118" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I68" s="64">
         <v>165616</v>
       </c>
       <c r="J68" s="118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K68" s="64"/>
       <c r="L68" s="64"/>
       <c r="M68" s="64"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="69"/>
       <c r="C69" s="64"/>
       <c r="D69" s="64"/>
       <c r="E69" s="64"/>
       <c r="F69" s="64"/>
       <c r="H69" s="118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I69" s="64">
         <v>249678.6</v>
       </c>
       <c r="J69" s="118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K69" s="64"/>
       <c r="L69" s="64"/>
       <c r="M69" s="64"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="69"/>
       <c r="C70" s="64"/>
       <c r="D70" s="64"/>
       <c r="E70" s="64"/>
       <c r="F70" s="64"/>
       <c r="H70" s="118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I70" s="64">
         <v>5237.9799999999996</v>
       </c>
       <c r="J70" s="118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K70" s="64"/>
       <c r="L70" s="64"/>
       <c r="M70" s="64"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="69"/>
       <c r="C71" s="64"/>
       <c r="D71" s="64"/>
       <c r="E71" s="64"/>
       <c r="F71" s="64"/>
       <c r="H71" s="118" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I71" s="64">
         <v>8140.02</v>
       </c>
       <c r="J71" s="118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K71" s="64"/>
       <c r="L71" s="64"/>
       <c r="M71" s="64"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="69"/>
       <c r="C72" s="64"/>
       <c r="D72" s="64"/>
@@ -4293,19 +4176,19 @@
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
       <c r="H72" s="118" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I72" s="65">
         <v>115.22</v>
       </c>
       <c r="J72" s="118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K72" s="64"/>
       <c r="L72" s="64"/>
       <c r="M72" s="64"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="69"/>
       <c r="C73" s="64"/>
       <c r="D73" s="64"/>
@@ -4318,13 +4201,13 @@
         <v>441879.39</v>
       </c>
       <c r="J73" s="118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K73" s="64"/>
       <c r="L73" s="64"/>
       <c r="M73" s="64"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="69"/>
       <c r="C74" s="64"/>
       <c r="D74" s="64"/>
@@ -4338,7 +4221,7 @@
       <c r="L74" s="64"/>
       <c r="M74" s="64"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="69"/>
       <c r="C75" s="103"/>
       <c r="D75" s="64"/>
@@ -4352,7 +4235,7 @@
       <c r="L75" s="64"/>
       <c r="M75" s="64"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="69"/>
       <c r="C76" s="103"/>
       <c r="D76" s="64"/>
@@ -4366,7 +4249,7 @@
       <c r="L76" s="64"/>
       <c r="M76" s="64"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="69"/>
       <c r="C77" s="64"/>
       <c r="D77" s="64"/>
@@ -4380,7 +4263,7 @@
       <c r="L77" s="64"/>
       <c r="M77" s="64"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="69"/>
       <c r="C78" s="64"/>
       <c r="D78" s="64"/>
@@ -4394,7 +4277,7 @@
       <c r="L78" s="64"/>
       <c r="M78" s="64"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="69"/>
       <c r="C79" s="64"/>
       <c r="D79" s="64"/>
@@ -4408,7 +4291,7 @@
       <c r="L79" s="64"/>
       <c r="M79" s="64"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="69"/>
       <c r="C80" s="64"/>
       <c r="D80" s="64"/>
@@ -4422,7 +4305,7 @@
       <c r="L80" s="64"/>
       <c r="M80" s="64"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="69"/>
       <c r="C81" s="64"/>
       <c r="D81" s="64"/>
@@ -4436,7 +4319,7 @@
       <c r="L81" s="64"/>
       <c r="M81" s="64"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="69"/>
       <c r="C82" s="64"/>
       <c r="D82" s="64"/>
@@ -4450,7 +4333,7 @@
       <c r="L82" s="64"/>
       <c r="M82" s="64"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="69"/>
       <c r="C83" s="64"/>
       <c r="D83" s="64"/>
@@ -4464,7 +4347,7 @@
       <c r="L83" s="64"/>
       <c r="M83" s="64"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="69"/>
       <c r="C84" s="64"/>
       <c r="D84" s="64"/>
@@ -4478,7 +4361,7 @@
       <c r="L84" s="64"/>
       <c r="M84" s="64"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="69"/>
       <c r="C85" s="64"/>
       <c r="D85" s="64"/>
@@ -4492,7 +4375,7 @@
       <c r="L85" s="64"/>
       <c r="M85" s="64"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="69"/>
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
@@ -4506,7 +4389,7 @@
       <c r="L86" s="64"/>
       <c r="M86" s="64"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="69"/>
       <c r="C87" s="64"/>
       <c r="D87" s="64"/>
@@ -4520,7 +4403,7 @@
       <c r="L87" s="64"/>
       <c r="M87" s="64"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="69"/>
       <c r="C88" s="103"/>
       <c r="D88" s="64"/>
@@ -4534,7 +4417,7 @@
       <c r="L88" s="64"/>
       <c r="M88" s="64"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="69"/>
       <c r="C89" s="103"/>
       <c r="D89" s="64"/>
@@ -4548,7 +4431,7 @@
       <c r="L89" s="64"/>
       <c r="M89" s="64"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="69"/>
       <c r="C90" s="64"/>
       <c r="D90" s="64"/>
@@ -4562,7 +4445,7 @@
       <c r="L90" s="64"/>
       <c r="M90" s="64"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="69"/>
       <c r="C91" s="64"/>
       <c r="D91" s="64"/>
@@ -4576,7 +4459,7 @@
       <c r="L91" s="64"/>
       <c r="M91" s="64"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="69"/>
       <c r="C92" s="64"/>
       <c r="D92" s="64"/>
@@ -4590,7 +4473,7 @@
       <c r="L92" s="64"/>
       <c r="M92" s="64"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="69"/>
       <c r="C93" s="64"/>
       <c r="D93" s="64"/>
@@ -4604,12 +4487,12 @@
       <c r="L93" s="64"/>
       <c r="M93" s="64"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="69"/>
       <c r="C94" s="64"/>
       <c r="D94" s="64"/>
       <c r="E94" s="64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F94" s="64"/>
       <c r="G94" s="64"/>
@@ -4620,7 +4503,7 @@
       <c r="L94" s="64"/>
       <c r="M94" s="64"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="69"/>
       <c r="C95" s="64"/>
       <c r="D95" s="64"/>
@@ -4634,7 +4517,7 @@
       <c r="L95" s="64"/>
       <c r="M95" s="64"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="69"/>
       <c r="C96" s="64"/>
       <c r="D96" s="64"/>
@@ -4648,19 +4531,14 @@
       <c r="L96" s="64"/>
       <c r="M96" s="64"/>
     </row>
-    <row r="98" spans="3:6">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="108"/>
     </row>
-    <row r="101" spans="3:6">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F101" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_truck_using_lng_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_lng_mix.converter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -20,6 +20,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="116">
   <si>
     <t>Source</t>
   </si>
@@ -289,35 +290,115 @@
   </si>
   <si>
     <t>Not used in ETM yet</t>
-  </si>
-  <si>
-    <r>
-      <t>output.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>truck</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_kms</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>output.freight_tonne_kms</t>
+  </si>
+  <si>
+    <t>tkm/MJ</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/eurostat/web/transport/data/main-tables?p_p_id=NavTreeportletprod_WAR_NavTreeportletprod_INSTANCE_BXN01QNK1Jk7&amp;p_p_lifecycle=0&amp;p_p_state=normal&amp;p_p_mode=view&amp;p_p_col_id=column-2&amp;p_p_col_count=1</t>
+  </si>
+  <si>
+    <t>vehicle km</t>
+  </si>
+  <si>
+    <t>mln vehicle km</t>
+  </si>
+  <si>
+    <t>tonne km</t>
+  </si>
+  <si>
+    <t>mln tonne km</t>
+  </si>
+  <si>
+    <t>tonne km/vehicle km</t>
+  </si>
+  <si>
+    <t>tonne km/MJ</t>
+  </si>
+  <si>
+    <t>Tonne km trucks</t>
+  </si>
+  <si>
+    <t>Vehicle km trucks</t>
+  </si>
+  <si>
+    <t>Tonne km vans</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=82836ned&amp;D1=1-2&amp;D2=0&amp;D3=0&amp;D4=l&amp;HDR=T&amp;STB=G1,G2,G3&amp;VW=T</t>
+  </si>
+  <si>
+    <t>Vehicle km vans</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=80353ned&amp;D1=a&amp;D2=a&amp;D3=0&amp;D4=25-26&amp;HDR=T&amp;STB=G1,G2,G3&amp;VW=T</t>
+  </si>
+  <si>
+    <t>vehicle kms (see below)</t>
+  </si>
+  <si>
+    <t>mj/km</t>
+  </si>
+  <si>
+    <t>km/mj</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>cedelft-ecn-tno</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>p.66</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
+  </si>
+  <si>
+    <t>truck kms</t>
+  </si>
+  <si>
+    <t>mln</t>
+  </si>
+  <si>
+    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne. Since vans are included in the truck category in the ETM, we calculated the weighted efficiency</t>
+  </si>
+  <si>
+    <t>truck tonne kms</t>
+  </si>
+  <si>
+    <t>van kms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: used 2016 data since tonne kms is only available for 2016. Used van vehicle kms from different Statline than tonne kms since we are interested in all vehicle kms, not just loaded </t>
+  </si>
+  <si>
+    <t>van tonne kms</t>
+  </si>
+  <si>
+    <t>Note: used 2016 data since tonne kms is only available for 2016</t>
+  </si>
+  <si>
+    <t>Note: took average of CNG and GTL</t>
   </si>
 </sst>
 </file>
@@ -329,7 +410,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -509,6 +590,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,6 +598,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,6 +606,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,11 +614,13 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,7 +634,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1083,7 +1183,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1099,9 +1199,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1165,9 +1262,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1265,6 +1359,13 @@
     <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1292,6 +1393,12 @@
     <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1562,8 +1669,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1606,8 +1713,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -1650,8 +1757,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1754,6 +1861,158 @@
         <a:xfrm>
           <a:off x="8458200" y="19519900"/>
           <a:ext cx="11252200" cy="4292600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="38620700"/>
+          <a:ext cx="13512800" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7988300" y="35153600"/>
+          <a:ext cx="13373100" cy="3441700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>528864</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16662400" y="15074900"/>
+          <a:ext cx="5050064" cy="1930400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="23914100"/>
+          <a:ext cx="7823200" cy="2044700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1873,6 +2132,27 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Research data"/>
+      <sheetName val="Sources"/>
+      <sheetName val="Notes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2211,23 +2491,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="19"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2273,105 +2553,105 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="76"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="79" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="77"/>
+      <c r="C12" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="80" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80" t="s">
+      <c r="B14" s="77"/>
+      <c r="C14" s="78" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="81" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="84" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="82" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="85" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="83" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="86" t="s">
+      <c r="B19" s="77"/>
+      <c r="C19" s="84" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="88" t="s">
+      <c r="B20" s="85"/>
+      <c r="C20" s="86" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="89" t="s">
+      <c r="B21" s="85"/>
+      <c r="C21" s="87" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="90" t="s">
+      <c r="B22" s="85"/>
+      <c r="C22" s="88" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="87"/>
-      <c r="C23" s="91" t="s">
+      <c r="B23" s="85"/>
+      <c r="C23" s="89" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2392,218 +2672,218 @@
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="5" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="33"/>
+    <col min="1" max="1" width="4.1640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="32" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="32" customWidth="1"/>
+    <col min="7" max="7" width="43.1640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="136"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="96"/>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="20"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="2:11" s="21" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:11" s="21" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="128"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="128"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="131"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="34"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="35"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="98"/>
-      <c r="C8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
+      <c r="D11" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="39">
+        <f>'Research data'!F7</f>
+        <v>0.69010554155563841</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="37"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="37"/>
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="98"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="95"/>
+    </row>
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="37"/>
+      <c r="C14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="112">
+        <f>'Research data'!F8</f>
+        <v>12</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="95"/>
+    </row>
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="37"/>
+      <c r="C15" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="38">
         <v>0</v>
       </c>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="21"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="40">
-        <f>'Research data'!H7</f>
-        <v>0.11820330969267138</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="38"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="34"/>
-    </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="97"/>
-    </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="114">
-        <f>'Research data'!H8</f>
-        <v>12</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="97"/>
-    </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="39">
-        <v>0</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="110" t="s">
+      <c r="F15" s="36"/>
+      <c r="G15" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="34"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2620,199 +2900,176 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="44" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="44" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="44" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="44"/>
+    <col min="1" max="2" width="3.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="43" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="43" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="43" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-    </row>
-    <row r="4" spans="2:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="21"/>
-      <c r="C4" s="92" t="s">
+    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="20"/>
+      <c r="C4" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="92" t="s">
+      <c r="D4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="92" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="90" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="47"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="L5" s="60"/>
-    </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="12" t="s">
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="46"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="J5" s="58"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="46"/>
+      <c r="C6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="48"/>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47"/>
-      <c r="C7" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="117">
-        <f>J7</f>
-        <v>0.11820330969267138</v>
-      </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="117">
-        <f>Notes!E13</f>
-        <v>0.11820330969267138</v>
-      </c>
-      <c r="L7" s="62"/>
-    </row>
-    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
-      <c r="C8" s="55" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="47"/>
+      <c r="J6" s="57"/>
+    </row>
+    <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="46"/>
+      <c r="C7" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="91"/>
+      <c r="F7" s="115">
+        <f>H7</f>
+        <v>0.69010554155563841</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="115">
+        <f>Notes!E147</f>
+        <v>0.69010554155563841</v>
+      </c>
+      <c r="J7" s="60"/>
+    </row>
+    <row r="8" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="46"/>
+      <c r="C8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="116">
-        <f>+J8</f>
+      <c r="E8" s="91"/>
+      <c r="F8" s="114">
+        <f>+H8</f>
         <v>12</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="116">
+      <c r="G8" s="51"/>
+      <c r="H8" s="114">
         <f>Notes!E46</f>
         <v>12</v>
       </c>
-      <c r="L8" s="62"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="47"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="48"/>
-      <c r="L9" s="51"/>
-    </row>
-    <row r="10" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="12" t="s">
+      <c r="J8" s="60"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="47"/>
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="46"/>
+      <c r="C10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="48"/>
-      <c r="L10" s="60"/>
-    </row>
-    <row r="11" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="96" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="47"/>
+      <c r="J10" s="58"/>
+    </row>
+    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="46"/>
+      <c r="C11" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="61" t="s">
+      <c r="D11" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="53">
-        <f>J11</f>
+      <c r="E11" s="92"/>
+      <c r="F11" s="52">
+        <f>H11</f>
         <v>128000</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="53">
+      <c r="G11" s="10"/>
+      <c r="H11" s="52">
         <f>Notes!E28</f>
         <v>128000</v>
       </c>
-      <c r="L11" s="123" t="s">
+      <c r="J11" s="121" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
-      <c r="C12" s="96" t="s">
+    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="46"/>
+      <c r="C12" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="95" t="s">
+      <c r="D12" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="52"/>
-      <c r="L12" s="123" t="s">
+      <c r="E12" s="91"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="51"/>
+      <c r="J12" s="121" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L13" s="62"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2825,252 +3082,312 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:J20"/>
+  <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A15" sqref="A15:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="65" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="65" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="65" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="65" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="71" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="71" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="65" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="65"/>
+    <col min="1" max="1" width="3.5" style="63" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="63" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="63" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="63" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="69" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" style="69" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="63" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="64"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="69"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="64"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="74"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="69"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="69"/>
+      <c r="B7" s="67"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="69"/>
-      <c r="C8" s="113" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="62">
         <v>2013</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="62">
         <v>2013</v>
       </c>
-      <c r="H8" s="121">
+      <c r="H8" s="119">
         <v>42278</v>
       </c>
-      <c r="I8" s="122" t="s">
+      <c r="I8" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="48" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="69"/>
-      <c r="C9" s="113" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="69"/>
-      <c r="C10" s="75" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="69"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="67"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="62"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="69"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="69"/>
-      <c r="C13" s="113" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="64"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="62"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="69"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="69"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="69"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="69"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="69"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+    </row>
+    <row r="15" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="139">
+        <v>2015</v>
+      </c>
+      <c r="H15" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="140" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="139">
+        <v>2015</v>
+      </c>
+      <c r="H16" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="140" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="139">
+        <v>2016</v>
+      </c>
+      <c r="H17" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="140" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="139">
+        <v>2016</v>
+      </c>
+      <c r="H18" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="140" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="69"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="105"/>
+      <c r="B19" s="67"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="H20" s="109"/>
+      <c r="B20" s="67"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="67"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="103"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="H22" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3083,1459 +3400,1794 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="65" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="65" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="65"/>
+    <col min="1" max="2" width="3.5" style="63" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="63" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="63" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="63" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="63" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="63"/>
+    <col min="11" max="11" width="23.33203125" style="63" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="69"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="69"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="B5" s="67"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="69"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="69"/>
-      <c r="D7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="B7" s="67"/>
+      <c r="D7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="69"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="69"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="69"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="69"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="69"/>
-      <c r="C12" s="115" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="120" t="s">
+      <c r="D12" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="62">
         <v>8.4600000000000009</v>
       </c>
-      <c r="F12" s="115" t="s">
+      <c r="F12" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="69"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64">
+      <c r="B13" s="67"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62">
         <f>1/E12</f>
         <v>0.11820330969267138</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="69"/>
-      <c r="C14" s="115" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="69"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="69"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="69"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="69"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="69"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="69"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="69"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="69"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="69"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="69"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="69"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="69"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="69"/>
-      <c r="D27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
+      <c r="B27" s="67"/>
+      <c r="D27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="69"/>
-      <c r="C28" s="115" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="120"/>
-      <c r="E28" s="64">
+      <c r="D28" s="118"/>
+      <c r="E28" s="62">
         <v>128000</v>
       </c>
-      <c r="F28" s="115" t="s">
+      <c r="F28" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="69"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="69"/>
-      <c r="C30" s="115" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="69"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="69"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="69"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="69"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="69"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="69"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="69"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="69"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
+      <c r="B38" s="67"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="69"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="69"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="69"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="69"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="69"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="69"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="69"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="69"/>
-      <c r="C46" s="115" t="s">
+      <c r="B46" s="67"/>
+      <c r="C46" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64">
+      <c r="D46" s="62"/>
+      <c r="E46" s="62">
         <v>12</v>
       </c>
-      <c r="F46" s="115" t="s">
+      <c r="F46" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="69"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48" s="69"/>
-      <c r="C48" s="115" t="s">
+      <c r="B48" s="67"/>
+      <c r="C48" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="69"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50" s="69"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="69"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52" s="69"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="64"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B53" s="69"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54" s="69"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B55" s="69"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B56" s="69"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B57" s="69"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B58" s="69"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B59" s="69"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="62"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B60" s="69"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="118" t="s">
+      <c r="B60" s="67"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="J60" s="64"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="118" t="s">
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="M60" s="64"/>
+      <c r="M60" s="62"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B61" s="69"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64">
+      <c r="B61" s="67"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62">
         <v>60000</v>
       </c>
-      <c r="J61" s="118" t="s">
+      <c r="J61" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="K61" s="64"/>
-      <c r="L61" s="64"/>
-      <c r="M61" s="64"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B62" s="69"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64">
+      <c r="B62" s="67"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62">
         <f>E12</f>
         <v>8.4600000000000009</v>
       </c>
-      <c r="J62" s="118" t="s">
+      <c r="J62" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B63" s="69"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64">
+      <c r="B63" s="67"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62">
         <v>300</v>
       </c>
-      <c r="J63" s="118" t="s">
+      <c r="J63" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
-      <c r="M63" s="64"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B64" s="69"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
-      <c r="M64" s="64"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B65" s="69"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="119" t="s">
+      <c r="B65" s="67"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="H65" s="118" t="s">
+      <c r="H65" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="I65" s="64">
+      <c r="I65" s="62">
         <f>I61*I62*I63/1000000</f>
         <v>152.28000000000003</v>
       </c>
-      <c r="J65" s="118" t="s">
+      <c r="J65" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="K65" s="64">
+      <c r="K65" s="62">
         <f>I65/I73*100</f>
         <v>3.4461892418200364E-2</v>
       </c>
-      <c r="L65" s="64"/>
-      <c r="M65" s="64"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B66" s="69"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="119"/>
-      <c r="H66" s="118" t="s">
+      <c r="B66" s="67"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="I66" s="64">
+      <c r="I66" s="62">
         <v>855.56</v>
       </c>
-      <c r="J66" s="118" t="s">
+      <c r="J66" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="K66" s="64"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="64"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="62"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B67" s="69"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="H67" s="118" t="s">
+      <c r="B67" s="67"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="H67" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="I67" s="64">
+      <c r="I67" s="62">
         <v>12236.01</v>
       </c>
-      <c r="J67" s="118" t="s">
+      <c r="J67" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B68" s="69"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="H68" s="118" t="s">
+      <c r="B68" s="67"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="H68" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="I68" s="64">
+      <c r="I68" s="62">
         <v>165616</v>
       </c>
-      <c r="J68" s="118" t="s">
+      <c r="J68" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="K68" s="64"/>
-      <c r="L68" s="64"/>
-      <c r="M68" s="64"/>
+      <c r="K68" s="62"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="62"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B69" s="69"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="H69" s="118" t="s">
+      <c r="B69" s="67"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="H69" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="I69" s="64">
+      <c r="I69" s="62">
         <v>249678.6</v>
       </c>
-      <c r="J69" s="118" t="s">
+      <c r="J69" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="K69" s="64"/>
-      <c r="L69" s="64"/>
-      <c r="M69" s="64"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="62"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B70" s="69"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="H70" s="118" t="s">
+      <c r="B70" s="67"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="H70" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="I70" s="64">
+      <c r="I70" s="62">
         <v>5237.9799999999996</v>
       </c>
-      <c r="J70" s="118" t="s">
+      <c r="J70" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="K70" s="64"/>
-      <c r="L70" s="64"/>
-      <c r="M70" s="64"/>
+      <c r="K70" s="62"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="62"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B71" s="69"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="H71" s="118" t="s">
+      <c r="B71" s="67"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="H71" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="I71" s="64">
+      <c r="I71" s="62">
         <v>8140.02</v>
       </c>
-      <c r="J71" s="118" t="s">
+      <c r="J71" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="64"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="62"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B72" s="69"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="118" t="s">
+      <c r="B72" s="67"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="I72" s="65">
+      <c r="I72" s="63">
         <v>115.22</v>
       </c>
-      <c r="J72" s="118" t="s">
+      <c r="J72" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="K72" s="64"/>
-      <c r="L72" s="64"/>
-      <c r="M72" s="64"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B73" s="69"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="64">
+      <c r="B73" s="67"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62">
         <f>SUM(I66:I72)</f>
         <v>441879.39</v>
       </c>
-      <c r="J73" s="118" t="s">
+      <c r="J73" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="K73" s="64"/>
-      <c r="L73" s="64"/>
-      <c r="M73" s="64"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="62"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B74" s="69"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="64"/>
-      <c r="K74" s="64"/>
-      <c r="L74" s="64"/>
-      <c r="M74" s="64"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="62"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B75" s="69"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="64"/>
-      <c r="L75" s="64"/>
-      <c r="M75" s="64"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B76" s="69"/>
-      <c r="C76" s="103"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="64"/>
-      <c r="K76" s="64"/>
-      <c r="L76" s="64"/>
-      <c r="M76" s="64"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="62"/>
+      <c r="L76" s="62"/>
+      <c r="M76" s="62"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B77" s="69"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="64"/>
-      <c r="J77" s="64"/>
-      <c r="K77" s="64"/>
-      <c r="L77" s="64"/>
-      <c r="M77" s="64"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="62"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B78" s="69"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="64"/>
-      <c r="K78" s="64"/>
-      <c r="L78" s="64"/>
-      <c r="M78" s="64"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="62"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B79" s="69"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="64"/>
-      <c r="L79" s="64"/>
-      <c r="M79" s="64"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B80" s="69"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="64"/>
-      <c r="K80" s="64"/>
-      <c r="L80" s="64"/>
-      <c r="M80" s="64"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="62"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B81" s="69"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="64"/>
-      <c r="L81" s="64"/>
-      <c r="M81" s="64"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="62"/>
+      <c r="L81" s="62"/>
+      <c r="M81" s="62"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B82" s="69"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="103"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="64"/>
-      <c r="K82" s="64"/>
-      <c r="L82" s="64"/>
-      <c r="M82" s="64"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="101"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B83" s="69"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="64"/>
-      <c r="L83" s="64"/>
-      <c r="M83" s="64"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B84" s="69"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="64"/>
-      <c r="K84" s="64"/>
-      <c r="L84" s="64"/>
-      <c r="M84" s="64"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="62"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B85" s="69"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="64"/>
-      <c r="L85" s="64"/>
-      <c r="M85" s="64"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="62"/>
+      <c r="J85" s="62"/>
+      <c r="K85" s="62"/>
+      <c r="L85" s="62"/>
+      <c r="M85" s="62"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B86" s="69"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="64"/>
-      <c r="K86" s="64"/>
-      <c r="L86" s="64"/>
-      <c r="M86" s="64"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="62"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B87" s="69"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="64"/>
-      <c r="L87" s="64"/>
-      <c r="M87" s="64"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="62"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B88" s="69"/>
-      <c r="C88" s="103"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="64"/>
-      <c r="K88" s="64"/>
-      <c r="L88" s="64"/>
-      <c r="M88" s="64"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="62"/>
+      <c r="J88" s="62"/>
+      <c r="K88" s="62"/>
+      <c r="L88" s="62"/>
+      <c r="M88" s="62"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B89" s="69"/>
-      <c r="C89" s="103"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
-      <c r="I89" s="64"/>
-      <c r="J89" s="64"/>
-      <c r="K89" s="64"/>
-      <c r="L89" s="64"/>
-      <c r="M89" s="64"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="62"/>
+      <c r="K89" s="62"/>
+      <c r="L89" s="62"/>
+      <c r="M89" s="62"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B90" s="69"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="64"/>
-      <c r="H90" s="64"/>
-      <c r="I90" s="64"/>
-      <c r="J90" s="64"/>
-      <c r="K90" s="64"/>
-      <c r="L90" s="64"/>
-      <c r="M90" s="64"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="62"/>
+      <c r="K90" s="62"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B91" s="69"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="103"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="64"/>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="M91" s="64"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="62"/>
+      <c r="H91" s="62"/>
+      <c r="I91" s="62"/>
+      <c r="J91" s="62"/>
+      <c r="K91" s="62"/>
+      <c r="L91" s="62"/>
+      <c r="M91" s="62"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B92" s="69"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
-      <c r="H92" s="64"/>
-      <c r="I92" s="64"/>
-      <c r="J92" s="64"/>
-      <c r="K92" s="64"/>
-      <c r="L92" s="64"/>
-      <c r="M92" s="64"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="62"/>
+      <c r="J92" s="62"/>
+      <c r="K92" s="62"/>
+      <c r="L92" s="62"/>
+      <c r="M92" s="62"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B93" s="69"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="64"/>
-      <c r="H93" s="64"/>
-      <c r="I93" s="64"/>
-      <c r="J93" s="64"/>
-      <c r="K93" s="64"/>
-      <c r="L93" s="64"/>
-      <c r="M93" s="64"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="62"/>
+      <c r="I93" s="62"/>
+      <c r="J93" s="62"/>
+      <c r="K93" s="62"/>
+      <c r="L93" s="62"/>
+      <c r="M93" s="62"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B94" s="69"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="64" t="s">
+      <c r="B94" s="67"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="F94" s="64"/>
-      <c r="G94" s="64"/>
-      <c r="H94" s="64"/>
-      <c r="I94" s="64"/>
-      <c r="J94" s="64"/>
-      <c r="K94" s="64"/>
-      <c r="L94" s="64"/>
-      <c r="M94" s="64"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="62"/>
+      <c r="I94" s="62"/>
+      <c r="J94" s="62"/>
+      <c r="K94" s="62"/>
+      <c r="L94" s="62"/>
+      <c r="M94" s="62"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B95" s="69"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="64"/>
-      <c r="J95" s="64"/>
-      <c r="K95" s="64"/>
-      <c r="L95" s="64"/>
-      <c r="M95" s="64"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="62"/>
+      <c r="H95" s="62"/>
+      <c r="I95" s="62"/>
+      <c r="J95" s="62"/>
+      <c r="K95" s="62"/>
+      <c r="L95" s="62"/>
+      <c r="M95" s="62"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B96" s="69"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="64"/>
-      <c r="L96" s="64"/>
-      <c r="M96" s="64"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="62"/>
+      <c r="J96" s="62"/>
+      <c r="K96" s="62"/>
+      <c r="L96" s="62"/>
+      <c r="M96" s="62"/>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C98" s="108"/>
+      <c r="C98" s="106"/>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F101" s="108"/>
+      <c r="F101" s="106"/>
+    </row>
+    <row r="115" spans="2:10" s="123" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="2:10" s="123" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="2:10" s="123" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="2:10" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="141"/>
+      <c r="G120" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="H120" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="I120" s="139" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" s="139" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="141"/>
+      <c r="C121" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="F121" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="G121" s="139">
+        <f>G129</f>
+        <v>7546</v>
+      </c>
+      <c r="H121" s="126">
+        <f>E12</f>
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="I121" s="142"/>
+    </row>
+    <row r="122" spans="2:10" s="139" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="141"/>
+      <c r="C122" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="F122" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="G122" s="139">
+        <f>G131</f>
+        <v>17292.2</v>
+      </c>
+      <c r="H122" s="126">
+        <f>(2.1+2.31)/2</f>
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="I122" s="142"/>
+      <c r="J122" s="139" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="141"/>
+      <c r="C123" s="139" t="s">
+        <v>105</v>
+      </c>
+      <c r="F123" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="H123" s="139">
+        <f>((H122*G122)+(H121*G121))/(G121+G122)</f>
+        <v>4.1053079933328505</v>
+      </c>
+      <c r="I123" s="139">
+        <f>1/H123</f>
+        <v>0.24358708326489303</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="141"/>
+    </row>
+    <row r="125" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="141"/>
+    </row>
+    <row r="126" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="141"/>
+    </row>
+    <row r="127" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="141"/>
+    </row>
+    <row r="128" spans="2:10" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="141"/>
+    </row>
+    <row r="129" spans="2:12" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="141"/>
+      <c r="F129" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="G129" s="126">
+        <v>7546</v>
+      </c>
+      <c r="H129" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="J129" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="L129" s="139" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="141"/>
+      <c r="F130" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="G130" s="126">
+        <v>68900</v>
+      </c>
+      <c r="H130" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="J130" s="139" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="141"/>
+      <c r="F131" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="G131" s="126">
+        <v>17292.2</v>
+      </c>
+      <c r="H131" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="J131" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="L131" s="139" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="141"/>
+      <c r="F132" s="139" t="s">
+        <v>113</v>
+      </c>
+      <c r="G132" s="126">
+        <v>1469</v>
+      </c>
+      <c r="H132" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="J132" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="L132" s="139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="143"/>
+      <c r="G133" s="144"/>
+    </row>
+    <row r="134" spans="2:12" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="143"/>
+      <c r="G134" s="144"/>
+    </row>
+    <row r="135" spans="2:12" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="143"/>
+      <c r="G135" s="144"/>
+    </row>
+    <row r="136" spans="2:12" s="139" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="143"/>
+      <c r="G136" s="144"/>
+    </row>
+    <row r="137" spans="2:12" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="143"/>
+      <c r="G137" s="144"/>
+    </row>
+    <row r="138" spans="2:12" s="123" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="124" t="s">
+        <v>83</v>
+      </c>
+      <c r="D138" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E138" s="126">
+        <f>G129+G131</f>
+        <v>24838.2</v>
+      </c>
+      <c r="F138" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="G138" s="125"/>
+      <c r="H138" s="125"/>
+      <c r="I138" s="125"/>
+    </row>
+    <row r="139" spans="2:12" s="123" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="125"/>
+      <c r="D139" s="125"/>
+      <c r="E139" s="125">
+        <f>E138*1000000</f>
+        <v>24838200000</v>
+      </c>
+      <c r="F139" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="G139" s="125"/>
+      <c r="H139" s="125"/>
+      <c r="I139" s="125"/>
+    </row>
+    <row r="140" spans="2:12" s="123" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="125"/>
+      <c r="D140" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="E140" s="127">
+        <f>G130+G132</f>
+        <v>70369</v>
+      </c>
+      <c r="F140" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="G140" s="125"/>
+      <c r="H140" s="125"/>
+      <c r="I140" s="125"/>
+    </row>
+    <row r="141" spans="2:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="125"/>
+      <c r="D141" s="125"/>
+      <c r="E141" s="128">
+        <f>E140*1000000</f>
+        <v>70369000000</v>
+      </c>
+      <c r="F141" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="G141" s="125"/>
+      <c r="H141" s="125"/>
+      <c r="I141" s="125"/>
+    </row>
+    <row r="142" spans="2:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="125"/>
+      <c r="D142" s="125"/>
+      <c r="E142" s="125"/>
+      <c r="F142" s="125"/>
+      <c r="G142" s="125"/>
+      <c r="H142" s="125"/>
+      <c r="I142" s="125"/>
+    </row>
+    <row r="143" spans="2:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="125"/>
+      <c r="D143" s="125"/>
+      <c r="E143" s="129">
+        <f>E141/E139</f>
+        <v>2.8330957959916581</v>
+      </c>
+      <c r="F143" s="125" t="s">
+        <v>90</v>
+      </c>
+      <c r="G143" s="125"/>
+      <c r="H143" s="125"/>
+      <c r="I143" s="125"/>
+    </row>
+    <row r="144" spans="2:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C144" s="125"/>
+      <c r="D144" s="125"/>
+      <c r="E144" s="125"/>
+      <c r="F144" s="125"/>
+      <c r="G144" s="125"/>
+      <c r="H144" s="125"/>
+      <c r="I144" s="125"/>
+    </row>
+    <row r="145" spans="3:9" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C145" s="125"/>
+      <c r="D145" s="125"/>
+      <c r="E145" s="125"/>
+      <c r="F145" s="125"/>
+      <c r="G145" s="125"/>
+      <c r="H145" s="125"/>
+      <c r="I145" s="125"/>
+    </row>
+    <row r="146" spans="3:9" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="125"/>
+      <c r="D146" s="125"/>
+      <c r="E146" s="125"/>
+      <c r="F146" s="125"/>
+      <c r="G146" s="125"/>
+      <c r="H146" s="125"/>
+      <c r="I146" s="125"/>
+    </row>
+    <row r="147" spans="3:9" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="125"/>
+      <c r="D147" s="125">
+        <f>[2]Dashboard!C101</f>
+        <v>0</v>
+      </c>
+      <c r="E147" s="125">
+        <f>I123*E143</f>
+        <v>0.69010554155563841</v>
+      </c>
+      <c r="F147" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="G147" s="125"/>
+      <c r="H147" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="I147" s="125"/>
+    </row>
+    <row r="148" spans="3:9" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="125"/>
+      <c r="D148" s="125"/>
+      <c r="E148" s="125"/>
+      <c r="F148" s="125"/>
+      <c r="G148" s="125"/>
+      <c r="H148" s="90"/>
+      <c r="I148" s="125"/>
+    </row>
+    <row r="149" spans="3:9" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C149" s="125"/>
+      <c r="D149" s="125"/>
+      <c r="E149" s="125"/>
+      <c r="F149" s="125"/>
+      <c r="G149" s="125"/>
+      <c r="H149" s="90"/>
+      <c r="I149" s="125"/>
+    </row>
+    <row r="150" spans="3:9" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C150" s="125"/>
+      <c r="D150" s="125"/>
+      <c r="E150" s="125"/>
+      <c r="F150" s="125"/>
+      <c r="G150" s="125"/>
+      <c r="H150" s="125"/>
+      <c r="I150" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
